--- a/biology/Médecine/Hôpital_Saint-Luc/Hôpital_Saint-Luc.xlsx
+++ b/biology/Médecine/Hôpital_Saint-Luc/Hôpital_Saint-Luc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Saint-Luc</t>
+          <t>Hôpital_Saint-Luc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hôpital Saint-Luc (HSL) était un hôpital de Montréal, situé dans l'arrondissement de Ville-Marie. Il se trouvait précisément à l'intersection de la rue Saint-Denis et du boulevard René-Lévesque, au 1058, rue Saint-Denis, à Montréal. Il est nommé en l'honneur de l'apôtre Luc, qui est le saint patron des médecins dans la religion catholique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Saint-Luc</t>
+          <t>Hôpital_Saint-Luc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Hôpital Saint-Luc est fondé en 1908 par le Docteur F.-A. Fleury et alors située sur au 88 rue Saint-Denis, dans une maison privée.  
 L’hôpital étant situé dans le quartier le plus pauvre de Montréal, le fondateur, le Dr  F.-A. Fleury décide de s’impliquer dans le traitement des enfants démunis. L’Hôpital Saint-Luc se donne ainsi pour mission d’accepter, sans aucune discrimination, toute personne requérant des soins. 
@@ -520,8 +534,8 @@
 L’Hôpital Saint-Luc est notamment historiquement le premier du Québec à offrir des services d’urgence 24 heures sans discrimination ethnique, linguistique ou religieuse. Les champs de spécialisation privilégiés par les fondateurs ont été l’oto-rhino-laryngologie, l’ophtalmologie, la dentisterie et la clinique antivénérienne, faisant foi de leurs préoccupations communautaires.
 Avec les années, les besoins d’hospitalisation sont toutefois devenus de plus en plus criants. En 1928 est inauguré le Petit Hôpital, faisant passer la capacité d’accueil de 9 à 89 lits. Ce ne fut, par la suite, qu’un enchaînement d’agrandissements successifs, permettant à l’Hôpital Saint-Luc d’offrir un total de 814 lits lors de sa fermeture en 2017. 
 Le 1er octobre 1996, l'Hôpital Saint-Luc signe le protocole d’entente qui le rattache au Centre hospitalier de l’Université de Montréal et ses deux autres hôpitaux : l'Hôtel-Dieu de Montréal et l'Hôpital Notre-Dame de Montréal. 
-L'Hôpital Saint-Luc cesse ses activités le 8 octobre 2017 avec le déménagement de ses derniers patients vers le CHUM[1].
-L'Hôpital Saint-Luc est démoli à l'automne 2018[2].
+L'Hôpital Saint-Luc cesse ses activités le 8 octobre 2017 avec le déménagement de ses derniers patients vers le CHUM.
+L'Hôpital Saint-Luc est démoli à l'automne 2018.
 </t>
         </is>
       </c>
